--- a/pcb/bom/bom.xlsx
+++ b/pcb/bom/bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>Qty</t>
   </si>
@@ -31,34 +31,43 @@
     <t>Purchase Link</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C5, C4, C3, C2</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>H1, H3, H2, H4</t>
+    <t>C1, C6, C7, C8, C9</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>D1, D2</t>
+  </si>
+  <si>
+    <t>H1, H2, H3</t>
   </si>
   <si>
     <t>J1</t>
@@ -73,22 +82,25 @@
     <t>J4</t>
   </si>
   <si>
-    <t>J5</t>
+    <t>J5, J8</t>
   </si>
   <si>
     <t>J6</t>
   </si>
   <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
-    <t>R4, R5, R3</t>
-  </si>
-  <si>
-    <t>R6, R7</t>
-  </si>
-  <si>
-    <t>S1</t>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>R1, R3, R4, R5, R6</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R7, R8</t>
   </si>
   <si>
     <t>U1</t>
@@ -100,88 +112,67 @@
     <t>U3</t>
   </si>
   <si>
-    <t>Y1</t>
-  </si>
-  <si>
     <t>0603 Capacitor</t>
   </si>
   <si>
+    <t>1206 Capacitor</t>
+  </si>
+  <si>
     <t>Electrolytic Capacitor</t>
   </si>
   <si>
     <t>Indicator LED</t>
   </si>
   <si>
-    <t>Standoff</t>
-  </si>
-  <si>
-    <t>DC Jack</t>
-  </si>
-  <si>
-    <t>RJ45 Jack</t>
-  </si>
-  <si>
-    <t>8pos Screw Terminal</t>
-  </si>
-  <si>
-    <t>Micro USB Socket</t>
-  </si>
-  <si>
     <t>16-pin Female Header</t>
   </si>
   <si>
     <t>12-pin Female Header</t>
   </si>
   <si>
+    <t>0603 Resistor</t>
+  </si>
+  <si>
     <t>0805 Resistor</t>
   </si>
   <si>
-    <t>0603 Resistor</t>
-  </si>
-  <si>
-    <t>Tactile switch</t>
+    <t>Voltage Regulator</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
   </si>
   <si>
     <t>Motor Driver IC</t>
   </si>
   <si>
-    <t>3.3V Voltage Regulator</t>
-  </si>
-  <si>
-    <t>Microcontroller</t>
-  </si>
-  <si>
-    <t>Resonator</t>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>0.1µF</t>
+  </si>
+  <si>
+    <t>22µF</t>
+  </si>
+  <si>
+    <t>10µF</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>2.2µF</t>
   </si>
   <si>
     <t>22nF</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>2.2µF</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
-    <t>4207</t>
-  </si>
-  <si>
-    <t>PJ-037A</t>
-  </si>
-  <si>
-    <t>0855025008</t>
-  </si>
-  <si>
-    <t>OSTVN08A150</t>
-  </si>
-  <si>
-    <t>10118194-0001LF</t>
+    <t>MountingHole</t>
+  </si>
+  <si>
+    <t>RJ45_pyControl</t>
   </si>
   <si>
     <t>PPTC161LFBN-RC</t>
@@ -190,88 +181,55 @@
     <t>PPTC121LFBN-RC</t>
   </si>
   <si>
+    <t>SWD_connector</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Male</t>
+  </si>
+  <si>
+    <t>Male header</t>
+  </si>
+  <si>
+    <t>Female header</t>
+  </si>
+  <si>
+    <t>3.9µH</t>
+  </si>
+  <si>
+    <t>10KΩ</t>
+  </si>
+  <si>
+    <t>1KΩ</t>
+  </si>
+  <si>
     <t>0.3Ω</t>
   </si>
   <si>
-    <t>10KΩ</t>
-  </si>
-  <si>
-    <t>27Ω</t>
-  </si>
-  <si>
-    <t>B3FS-1010P</t>
-  </si>
-  <si>
-    <t>TMC2208</t>
-  </si>
-  <si>
-    <t>ROF-78E3.3-0.5SMD-R</t>
-  </si>
-  <si>
-    <t>ATMEGA32U4</t>
-  </si>
-  <si>
-    <t>8MHz</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=1276-6534-1</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=1276-1258-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=399-7886-1-ND</t>
+    <t>AP63203WU</t>
+  </si>
+  <si>
+    <t>ATSAMD21G</t>
+  </si>
+  <si>
+    <t>TMC2209</t>
+  </si>
+  <si>
+    <t>~</t>
   </si>
   <si>
     <t>https://www.digikey.com/products/en?keywords=493-2203-1-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/products/en?keywords=160-1447-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/4207</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/cui-inc/PJ-037A/CP-037A-ND/1644545</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=wm3547ct-nd</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/OSTVN08A150/ED10566-ND/1588868/?itemSeq=270117158</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=609-4618-1-nd</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC161LFBN-RC/S7014-ND/810154</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPTC121LFBN-RC/S6100-ND/807231</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=p19247ct</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=311-10KGRCT-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=541-27.0sct</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=sw1440ct</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=1460-1184-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/ROF-78E3.3-0.5SMD-R/945-1689-1-ND/3593418/?itemSeq=270101613</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=atmega32u4-au-nd</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=490-17958-1-ND</t>
+    <t>https://www.digikey.com/products/en?keywords=SAM10710-ND</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AP63200-AP63201-AP63203-AP63205.pdf</t>
+  </si>
+  <si>
+    <t>https://cdn.sparkfun.com/assets/learn_tutorials/4/5/4/graphicalDatasheet-Dev.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/trinamic-motion-control-gmbh/TMC2209-LA-T/10232491?s=N4IgTCBcDaIC4FsDGYwAYCcIC6BfIA</t>
   </si>
 </sst>
 </file>
@@ -642,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,12 +631,12 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -690,64 +648,64 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -761,197 +719,176 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
       <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
       <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -962,71 +899,107 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>85</v>
+      <c r="E24" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="E22" r:id="rId3"/>
+    <hyperlink ref="E23" r:id="rId4"/>
+    <hyperlink ref="E24" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pcb/bom/bom.xlsx
+++ b/pcb/bom/bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>Qty</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Purchase Link</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>1</t>
@@ -40,13 +40,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C1, C6, C7, C8, C9</t>
-  </si>
-  <si>
-    <t>C2</t>
+    <t>C1, C2, C6, C7, C8, C9</t>
   </si>
   <si>
     <t>C3</t>
@@ -67,9 +61,6 @@
     <t>D1, D2</t>
   </si>
   <si>
-    <t>H1, H2, H3</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -94,10 +85,7 @@
     <t>L1</t>
   </si>
   <si>
-    <t>R1, R3, R4, R5, R6</t>
-  </si>
-  <si>
-    <t>R2</t>
+    <t>R1, R2, R3, R4, R5, R6</t>
   </si>
   <si>
     <t>R7, R8</t>
@@ -112,6 +100,9 @@
     <t>U3</t>
   </si>
   <si>
+    <t>U4</t>
+  </si>
+  <si>
     <t>0603 Capacitor</t>
   </si>
   <si>
@@ -148,16 +139,13 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>0.1µF</t>
-  </si>
-  <si>
     <t>22µF</t>
   </si>
   <si>
     <t>10µF</t>
   </si>
   <si>
-    <t>100uF</t>
+    <t>100µF</t>
   </si>
   <si>
     <t>2.2µF</t>
@@ -169,9 +157,6 @@
     <t>Red</t>
   </si>
   <si>
-    <t>MountingHole</t>
-  </si>
-  <si>
     <t>RJ45_pyControl</t>
   </si>
   <si>
@@ -181,7 +166,7 @@
     <t>PPTC121LFBN-RC</t>
   </si>
   <si>
-    <t>SWD_connector</t>
+    <t>Conn_02x03_Odd_Even</t>
   </si>
   <si>
     <t>Conn_01x04_Male</t>
@@ -199,9 +184,6 @@
     <t>10KΩ</t>
   </si>
   <si>
-    <t>1KΩ</t>
-  </si>
-  <si>
     <t>0.3Ω</t>
   </si>
   <si>
@@ -214,13 +196,13 @@
     <t>TMC2209</t>
   </si>
   <si>
+    <t>AT24C01C-STUM</t>
+  </si>
+  <si>
     <t>~</t>
   </si>
   <si>
     <t>https://www.digikey.com/products/en?keywords=493-2203-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=SAM10710-ND</t>
   </si>
   <si>
     <t>https://www.diodes.com/assets/Datasheets/AP63200-AP63201-AP63203-AP63205.pdf</t>
@@ -600,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,16 +610,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -645,16 +627,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -662,16 +644,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -679,16 +661,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -696,16 +678,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -713,64 +695,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -778,13 +760,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -792,33 +777,27 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -826,27 +805,27 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -854,58 +833,64 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -913,33 +898,33 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -947,59 +932,18 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E14" r:id="rId2"/>
-    <hyperlink ref="E22" r:id="rId3"/>
-    <hyperlink ref="E23" r:id="rId4"/>
-    <hyperlink ref="E24" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="E20" r:id="rId3"/>
+    <hyperlink ref="E21" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pcb/bom/bom.xlsx
+++ b/pcb/bom/bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>Qty</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Purchase Link</t>
   </si>
   <si>
-    <t>6</t>
+    <t>5</t>
   </si>
   <si>
     <t>1</t>
@@ -40,7 +40,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>C1, C2, C6, C7, C8, C9</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C2, C6, C7, C8, C9</t>
   </si>
   <si>
     <t>C3</t>
@@ -58,9 +61,6 @@
     <t>C11</t>
   </si>
   <si>
-    <t>D1, D2</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -82,10 +82,7 @@
     <t>J7</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R4, R5, R6</t>
+    <t>R2, R3, R4, R6</t>
   </si>
   <si>
     <t>R7, R8</t>
@@ -112,9 +109,6 @@
     <t>Electrolytic Capacitor</t>
   </si>
   <si>
-    <t>Indicator LED</t>
-  </si>
-  <si>
     <t>16-pin Female Header</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>0805 Resistor</t>
   </si>
   <si>
-    <t>Voltage Regulator</t>
-  </si>
-  <si>
     <t>Microcontroller</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>22nF</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
     <t>RJ45_pyControl</t>
   </si>
   <si>
@@ -178,16 +166,13 @@
     <t>Female header</t>
   </si>
   <si>
-    <t>3.9µH</t>
-  </si>
-  <si>
     <t>10KΩ</t>
   </si>
   <si>
     <t>0.3Ω</t>
   </si>
   <si>
-    <t>AP63203WU</t>
+    <t>AZ1117-3.3</t>
   </si>
   <si>
     <t>ATSAMD21G</t>
@@ -205,7 +190,7 @@
     <t>https://www.digikey.com/products/en?keywords=493-2203-1-ND</t>
   </si>
   <si>
-    <t>https://www.diodes.com/assets/Datasheets/AP63200-AP63201-AP63203-AP63205.pdf</t>
+    <t>https://www.digikey.com/en/products/detail/AZ1117IH-3.3TRG1/AZ1117IH-3.3TRG1DICT-ND/5699682</t>
   </si>
   <si>
     <t>https://cdn.sparkfun.com/assets/learn_tutorials/4/5/4/graphicalDatasheet-Dev.pdf</t>
@@ -582,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -627,16 +612,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -644,16 +629,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -661,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -678,16 +663,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -695,33 +680,30 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -729,13 +711,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -743,16 +728,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -760,44 +745,41 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -805,75 +787,78 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -881,16 +866,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -898,52 +883,18 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E19" r:id="rId2"/>
-    <hyperlink ref="E20" r:id="rId3"/>
-    <hyperlink ref="E21" r:id="rId4"/>
+    <hyperlink ref="E17" r:id="rId2"/>
+    <hyperlink ref="E18" r:id="rId3"/>
+    <hyperlink ref="E19" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pcb/bom/bom.xlsx
+++ b/pcb/bom/bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>Qty</t>
   </si>
@@ -37,13 +37,16 @@
     <t>1</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C2, C6, C7, C8, C9</t>
+    <t>C1, C5, C6, C7, C8</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
   <si>
     <t>C3</t>
@@ -52,15 +55,12 @@
     <t>C4</t>
   </si>
   <si>
-    <t>C5</t>
+    <t>C9</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>C11</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -70,22 +70,16 @@
     <t>J3</t>
   </si>
   <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>J5, J8</t>
-  </si>
-  <si>
     <t>J6</t>
   </si>
   <si>
     <t>J7</t>
   </si>
   <si>
-    <t>R2, R3, R4, R6</t>
-  </si>
-  <si>
-    <t>R7, R8</t>
+    <t>R1, R2, R3, R4</t>
+  </si>
+  <si>
+    <t>R5, R6</t>
   </si>
   <si>
     <t>U1</t>
@@ -109,22 +103,37 @@
     <t>Electrolytic Capacitor</t>
   </si>
   <si>
+    <t>RJ45 Jack</t>
+  </si>
+  <si>
     <t>16-pin Female Header</t>
   </si>
   <si>
     <t>12-pin Female Header</t>
   </si>
   <si>
+    <t>7-pin Right Angle Male</t>
+  </si>
+  <si>
+    <t>7-pin Right Angle Female</t>
+  </si>
+  <si>
     <t>0603 Resistor</t>
   </si>
   <si>
     <t>0805 Resistor</t>
   </si>
   <si>
+    <t>3.3V Linear Regulator</t>
+  </si>
+  <si>
     <t>Microcontroller</t>
   </si>
   <si>
-    <t>Motor Driver IC</t>
+    <t>EEPROM</t>
+  </si>
+  <si>
+    <t>Motor Driver</t>
   </si>
   <si>
     <t>100nF</t>
@@ -145,25 +154,19 @@
     <t>22nF</t>
   </si>
   <si>
-    <t>RJ45_pyControl</t>
-  </si>
-  <si>
-    <t>PPTC161LFBN-RC</t>
-  </si>
-  <si>
-    <t>PPTC121LFBN-RC</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Odd_Even</t>
-  </si>
-  <si>
-    <t>Conn_01x04_Male</t>
-  </si>
-  <si>
-    <t>Male header</t>
-  </si>
-  <si>
-    <t>Female header</t>
+    <t>0855025008</t>
+  </si>
+  <si>
+    <t>ESQ-116-12-T-S</t>
+  </si>
+  <si>
+    <t>ESQ-112-12-T-S</t>
+  </si>
+  <si>
+    <t>PH1RB-07-UA</t>
+  </si>
+  <si>
+    <t>PPTC071LGBN-RC</t>
   </si>
   <si>
     <t>10KΩ</t>
@@ -178,22 +181,58 @@
     <t>ATSAMD21G</t>
   </si>
   <si>
+    <t>AT24C01C-STUM</t>
+  </si>
+  <si>
     <t>TMC2209</t>
   </si>
   <si>
-    <t>AT24C01C-STUM</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=493-2203-1-ND</t>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10F104ZO8NNNC/3886916?s=N4IgTCBcDaIIxgOwDYC0CCsAOdqByAIiALoC%2BQA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/CL31A226MOCLNNC/1276-2728-1-ND/3890814?itemSeq=362659788</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/tdk-corporation/CGA5L1X5R1C106M160AC/3950081</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/EMZA350ADA101MF80G/565-2559-1-ND/757720?itemSeq=363115427</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/CC0603KRX5R8BB225/5195688</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10B223KB8WPNC/5961018?s=N4IgTCBcDaIIxgOwDYC0yCsBmALKuIAugL5A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0855025008/2404887?s=N4IgTCBcDaIO4FsDMBWALAdgMYBcC0AdgCYgC6AvkA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samtec-inc/ESQ-116-12-T-S/7098325?s=N4IgTCBcDaIKIGUCKBaAjGgbOsKAqKCKAcgCIgC6AvkA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samtec-inc/esq-112-12-t-s/7097880</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adam-tech/PH1RB-07-UA/9831064?s=N4IgTCBcDa4AwFYDsBaADgCwIwCcBGKcSIAugL5A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/PPTC071LGBN-RC/775901?s=N4IgTCBcDaIM4FYAsSDMIC6BfIA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603JR-0710KL/726700?s=N4IgTCBcDaIMwEYEFoEAYDSBxASgYQBVkA5AERAF0BfIA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-6DQJR30V/6004330?s=N4IgTCBcDaIA4EYCcYAsB2AxgFxAXQF8g</t>
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/AZ1117IH-3.3TRG1/AZ1117IH-3.3TRG1DICT-ND/5699682</t>
   </si>
   <si>
-    <t>https://cdn.sparkfun.com/assets/learn_tutorials/4/5/4/graphicalDatasheet-Dev.pdf</t>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/ATSAMD21G18A-AUT/4878867</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/AT24C01C-STUM-T/3903734</t>
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/trinamic-motion-control-gmbh/TMC2209-LA-T/10232491?s=N4IgTCBcDaIC4FsDGYwAYCcIC6BfIA</t>
@@ -567,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -615,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -632,13 +671,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -649,13 +688,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -666,13 +705,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -683,13 +722,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -699,11 +738,14 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -714,13 +756,13 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -731,13 +773,13 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -747,87 +789,99 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
       <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -837,11 +891,14 @@
       <c r="B17" t="s">
         <v>24</v>
       </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -852,49 +909,34 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E17" r:id="rId2"/>
-    <hyperlink ref="E18" r:id="rId3"/>
-    <hyperlink ref="E19" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
